--- a/18.xlsx
+++ b/18.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ernest\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Downloads/INF_PROB_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B757069-8E46-44AA-898A-6A60EDB7A7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F21F3C0-0FBC-2340-9EE2-A1EA585CDD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9960" yWindow="-28800" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,24 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>h</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -41,7 +50,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -63,6 +72,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDC3939"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -159,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -174,6 +189,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -478,15 +494,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V45"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="82" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3">
         <v>92</v>
       </c>
@@ -548,7 +564,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>54</v>
       </c>
@@ -610,7 +626,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>67</v>
       </c>
@@ -672,7 +688,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>50</v>
       </c>
@@ -734,7 +750,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>49</v>
       </c>
@@ -796,7 +812,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>85</v>
       </c>
@@ -858,7 +874,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>55</v>
       </c>
@@ -920,7 +936,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>71</v>
       </c>
@@ -982,7 +998,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>44</v>
       </c>
@@ -1044,7 +1060,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>73</v>
       </c>
@@ -1106,7 +1122,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>57</v>
       </c>
@@ -1168,7 +1184,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>62</v>
       </c>
@@ -1230,7 +1246,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>91</v>
       </c>
@@ -1292,7 +1308,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>63</v>
       </c>
@@ -1354,7 +1370,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>58</v>
       </c>
@@ -1416,7 +1432,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>74</v>
       </c>
@@ -1478,7 +1494,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>72</v>
       </c>
@@ -1540,7 +1556,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>70</v>
       </c>
@@ -1602,7 +1618,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>56</v>
       </c>
@@ -1664,7 +1680,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>69</v>
       </c>
@@ -1726,14 +1742,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="22" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <f t="shared" ref="A22:R22" si="0">B22+A1</f>
+        <f>B22+A1</f>
         <v>1320</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A22:R22" si="0">C22+B1</f>
         <v>1228</v>
       </c>
       <c r="C22" s="1">
@@ -1809,81 +1825,81 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <f>MIN(B23,A22) + A2</f>
+        <f t="shared" ref="A23:A41" si="1">MIN(B23,A22) + A2</f>
         <v>1369</v>
       </c>
       <c r="B23" s="9">
-        <f t="shared" ref="B23:B26" si="1">B22 + B2</f>
+        <f t="shared" ref="B23:B26" si="2">B22 + B2</f>
         <v>1315</v>
       </c>
       <c r="C23">
-        <f>MIN(D23,C22) + C2</f>
+        <f t="shared" ref="C23:S23" si="3">MIN(D23,C22) + C2</f>
         <v>1151</v>
       </c>
       <c r="D23">
-        <f>MIN(E23,D22) + D2</f>
+        <f t="shared" si="3"/>
         <v>1093</v>
       </c>
       <c r="E23">
-        <f>MIN(F23,E22) + E2</f>
+        <f t="shared" si="3"/>
         <v>1033</v>
       </c>
       <c r="F23">
-        <f>MIN(G23,F22) + F2</f>
+        <f t="shared" si="3"/>
         <v>964</v>
       </c>
       <c r="G23">
-        <f>MIN(H23,G22) + G2</f>
+        <f t="shared" si="3"/>
         <v>908</v>
       </c>
       <c r="H23">
-        <f>MIN(I23,H22) + H2</f>
+        <f t="shared" si="3"/>
         <v>863</v>
       </c>
       <c r="I23">
-        <f>MIN(J23,I22) + I2</f>
+        <f t="shared" si="3"/>
         <v>820</v>
       </c>
       <c r="J23">
-        <f>MIN(K23,J22) + J2</f>
+        <f t="shared" si="3"/>
         <v>769</v>
       </c>
       <c r="K23">
-        <f>MIN(L23,K22) + K2</f>
+        <f t="shared" si="3"/>
         <v>758</v>
       </c>
       <c r="L23">
-        <f>MIN(M23,L22) + L2</f>
+        <f t="shared" si="3"/>
         <v>660</v>
       </c>
       <c r="M23">
-        <f>MIN(N23,M22) + M2</f>
+        <f t="shared" si="3"/>
         <v>574</v>
       </c>
       <c r="N23">
-        <f>MIN(O23,N22) + N2</f>
+        <f t="shared" si="3"/>
         <v>529</v>
       </c>
       <c r="O23">
-        <f>MIN(P23,O22) + O2</f>
+        <f t="shared" si="3"/>
         <v>436</v>
       </c>
       <c r="P23">
-        <f>MIN(Q23,P22) + P2</f>
+        <f t="shared" si="3"/>
         <v>384</v>
       </c>
       <c r="Q23">
-        <f>MIN(R23,Q22) + Q2</f>
+        <f t="shared" si="3"/>
         <v>348</v>
       </c>
       <c r="R23">
-        <f>MIN(S23,R22) + R2</f>
+        <f t="shared" si="3"/>
         <v>284</v>
       </c>
       <c r="S23">
-        <f>MIN(T23,S22) + S2</f>
+        <f t="shared" si="3"/>
         <v>194</v>
       </c>
       <c r="T23" s="2">
@@ -1891,177 +1907,177 @@
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <f>MIN(B24,A23) + A3</f>
+        <f t="shared" si="1"/>
         <v>1422</v>
       </c>
       <c r="B24" s="9">
+        <f t="shared" si="2"/>
+        <v>1355</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:G25" si="4">MIN(D24,C23) + C3</f>
+        <v>1211</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="4"/>
+        <v>1175</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="4"/>
+        <v>1085</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>1050</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>994</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" ref="H24:H27" si="5">H23 + H3</f>
+        <v>929</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" ref="I24:O27" si="6">MIN(J24,I23) + I3</f>
+        <v>873</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="6"/>
+        <v>838</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="6"/>
+        <v>767</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="6"/>
+        <v>690</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="6"/>
+        <v>647</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="6"/>
+        <v>618</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="6"/>
+        <v>533</v>
+      </c>
+      <c r="P24" s="9">
+        <f t="shared" ref="P24:P28" si="7">P23 + P3</f>
+        <v>442</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" ref="Q24:S26" si="8">MIN(R24,Q23) + Q3</f>
+        <v>400</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="8"/>
+        <v>377</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="8"/>
+        <v>288</v>
+      </c>
+      <c r="T24" s="2">
+        <f t="shared" ref="T24:T41" si="9">T23+T3</f>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <f t="shared" si="1"/>
-        <v>1355</v>
-      </c>
-      <c r="C24">
-        <f>MIN(D24,C23) + C3</f>
-        <v>1211</v>
-      </c>
-      <c r="D24">
-        <f>MIN(E24,D23) + D3</f>
-        <v>1175</v>
-      </c>
-      <c r="E24">
-        <f>MIN(F24,E23) + E3</f>
-        <v>1085</v>
-      </c>
-      <c r="F24">
-        <f>MIN(G24,F23) + F3</f>
+        <v>1468</v>
+      </c>
+      <c r="B25" s="9">
+        <f t="shared" si="2"/>
+        <v>1418</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="4"/>
+        <v>1277</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>1225</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="4"/>
+        <v>1177</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>1123</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
         <v>1050</v>
       </c>
-      <c r="G24">
-        <f>MIN(H24,G23) + G3</f>
-        <v>994</v>
-      </c>
-      <c r="H24" s="9">
-        <f t="shared" ref="H24:H27" si="2">H23 + H3</f>
-        <v>929</v>
-      </c>
-      <c r="I24" s="5">
-        <f>MIN(J24,I23) + I3</f>
-        <v>873</v>
-      </c>
-      <c r="J24">
-        <f>MIN(K24,J23) + J3</f>
-        <v>838</v>
-      </c>
-      <c r="K24">
-        <f>MIN(L24,K23) + K3</f>
-        <v>767</v>
-      </c>
-      <c r="L24">
-        <f>MIN(M24,L23) + L3</f>
-        <v>690</v>
-      </c>
-      <c r="M24">
-        <f>MIN(N24,M23) + M3</f>
-        <v>647</v>
-      </c>
-      <c r="N24">
-        <f>MIN(O24,N23) + N3</f>
-        <v>618</v>
-      </c>
-      <c r="O24">
-        <f>MIN(P24,O23) + O3</f>
-        <v>533</v>
-      </c>
-      <c r="P24" s="9">
-        <f t="shared" ref="P24:P28" si="3">P23 + P3</f>
-        <v>442</v>
-      </c>
-      <c r="Q24">
-        <f>MIN(R24,Q23) + Q3</f>
-        <v>400</v>
-      </c>
-      <c r="R24">
-        <f>MIN(S24,R23) + R3</f>
-        <v>377</v>
-      </c>
-      <c r="S24">
-        <f>MIN(T24,S23) + S3</f>
-        <v>288</v>
-      </c>
-      <c r="T24" s="2">
-        <f t="shared" ref="T24:T41" si="4">T23+T3</f>
-        <v>249</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
-        <f>MIN(B25,A24) + A4</f>
-        <v>1468</v>
-      </c>
-      <c r="B25" s="9">
+      <c r="H25" s="9">
+        <f t="shared" si="5"/>
+        <v>1002</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="6"/>
+        <v>966</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="6"/>
+        <v>913</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="6"/>
+        <v>852</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="6"/>
+        <v>776</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="6"/>
+        <v>711</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="6"/>
+        <v>670</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="6"/>
+        <v>607</v>
+      </c>
+      <c r="P25" s="9">
+        <f t="shared" si="7"/>
+        <v>536</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="8"/>
+        <v>451</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="8"/>
+        <v>382</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="8"/>
+        <v>341</v>
+      </c>
+      <c r="T25" s="2">
+        <f t="shared" si="9"/>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <f t="shared" si="1"/>
-        <v>1418</v>
-      </c>
-      <c r="C25">
-        <f>MIN(D25,C24) + C4</f>
-        <v>1277</v>
-      </c>
-      <c r="D25">
-        <f>MIN(E25,D24) + D4</f>
-        <v>1225</v>
-      </c>
-      <c r="E25">
-        <f>MIN(F25,E24) + E4</f>
-        <v>1177</v>
-      </c>
-      <c r="F25">
-        <f>MIN(G25,F24) + F4</f>
-        <v>1123</v>
-      </c>
-      <c r="G25">
-        <f>MIN(H25,G24) + G4</f>
-        <v>1050</v>
-      </c>
-      <c r="H25" s="9">
+        <v>1517</v>
+      </c>
+      <c r="B26" s="9">
         <f t="shared" si="2"/>
-        <v>1002</v>
-      </c>
-      <c r="I25" s="5">
-        <f>MIN(J25,I24) + I4</f>
-        <v>966</v>
-      </c>
-      <c r="J25">
-        <f>MIN(K25,J24) + J4</f>
-        <v>913</v>
-      </c>
-      <c r="K25">
-        <f>MIN(L25,K24) + K4</f>
-        <v>852</v>
-      </c>
-      <c r="L25">
-        <f>MIN(M25,L24) + L4</f>
-        <v>776</v>
-      </c>
-      <c r="M25">
-        <f>MIN(N25,M24) + M4</f>
-        <v>711</v>
-      </c>
-      <c r="N25">
-        <f>MIN(O25,N24) + N4</f>
-        <v>670</v>
-      </c>
-      <c r="O25">
-        <f>MIN(P25,O24) + O4</f>
-        <v>607</v>
-      </c>
-      <c r="P25" s="9">
-        <f t="shared" si="3"/>
-        <v>536</v>
-      </c>
-      <c r="Q25">
-        <f>MIN(R25,Q24) + Q4</f>
-        <v>451</v>
-      </c>
-      <c r="R25">
-        <f>MIN(S25,R24) + R4</f>
-        <v>382</v>
-      </c>
-      <c r="S25">
-        <f>MIN(T25,S24) + S4</f>
-        <v>341</v>
-      </c>
-      <c r="T25" s="2">
-        <f t="shared" si="4"/>
-        <v>316</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="5">
-        <f>MIN(B26,A25) + A5</f>
-        <v>1517</v>
-      </c>
-      <c r="B26" s="9">
-        <f t="shared" si="1"/>
         <v>1476</v>
       </c>
       <c r="C26" s="12">
@@ -2077,7 +2093,7 @@
         <v>1260</v>
       </c>
       <c r="F26" s="9">
-        <f t="shared" ref="F26:F29" si="5">F25 + F5</f>
+        <f t="shared" ref="F26:F29" si="10">F25 + F5</f>
         <v>1213</v>
       </c>
       <c r="G26">
@@ -2085,65 +2101,65 @@
         <v>1130</v>
       </c>
       <c r="H26" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1096</v>
       </c>
       <c r="I26" s="5">
-        <f>MIN(J26,I25) + I5</f>
+        <f t="shared" si="6"/>
         <v>1013</v>
       </c>
       <c r="J26">
-        <f>MIN(K26,J25) + J5</f>
+        <f t="shared" si="6"/>
         <v>1007</v>
       </c>
       <c r="K26">
-        <f>MIN(L26,K25) + K5</f>
+        <f t="shared" si="6"/>
         <v>928</v>
       </c>
       <c r="L26">
-        <f>MIN(M26,L25) + L5</f>
+        <f t="shared" si="6"/>
         <v>846</v>
       </c>
       <c r="M26">
-        <f>MIN(N26,M25) + M5</f>
+        <f t="shared" si="6"/>
         <v>806</v>
       </c>
       <c r="N26">
-        <f>MIN(O26,N25) + N5</f>
+        <f t="shared" si="6"/>
         <v>713</v>
       </c>
       <c r="O26">
-        <f>MIN(P26,O25) + O5</f>
+        <f t="shared" si="6"/>
         <v>645</v>
       </c>
       <c r="P26" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>590</v>
       </c>
       <c r="Q26">
-        <f>MIN(R26,Q25) + Q5</f>
+        <f t="shared" si="8"/>
         <v>536</v>
       </c>
       <c r="R26">
-        <f>MIN(S26,R25) + R5</f>
+        <f t="shared" si="8"/>
         <v>448</v>
       </c>
       <c r="S26">
-        <f>MIN(T26,S25) + S5</f>
+        <f t="shared" si="8"/>
         <v>394</v>
       </c>
       <c r="T26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>377</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <f>MIN(B27,A26) + A6</f>
+        <f t="shared" si="1"/>
         <v>1530</v>
       </c>
       <c r="B27">
-        <f>MIN(C27,B26) + B6</f>
+        <f t="shared" ref="B27:B36" si="11">MIN(C27,B26) + B6</f>
         <v>1445</v>
       </c>
       <c r="C27" s="11">
@@ -2151,15 +2167,15 @@
         <v>1355</v>
       </c>
       <c r="D27" s="9">
-        <f t="shared" ref="D27:D35" si="6">D26 + D6</f>
+        <f t="shared" ref="D27:D35" si="12">D26 + D6</f>
         <v>1314</v>
       </c>
       <c r="E27">
-        <f>MIN(F27,E26) + E6</f>
+        <f t="shared" ref="E27:E35" si="13">MIN(F27,E26) + E6</f>
         <v>1316</v>
       </c>
       <c r="F27" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1278</v>
       </c>
       <c r="G27">
@@ -2167,43 +2183,43 @@
         <v>1181</v>
       </c>
       <c r="H27" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1156</v>
       </c>
       <c r="I27" s="12">
-        <f>MIN(J27,I26) + I6</f>
+        <f t="shared" si="6"/>
         <v>1093</v>
       </c>
       <c r="J27" s="7">
-        <f>MIN(K27,J26) + J6</f>
+        <f t="shared" si="6"/>
         <v>1061</v>
       </c>
       <c r="K27" s="7">
-        <f>MIN(L27,K26) + K6</f>
+        <f t="shared" si="6"/>
         <v>975</v>
       </c>
       <c r="L27" s="7">
-        <f>MIN(M27,L26) + L6</f>
+        <f t="shared" si="6"/>
         <v>927</v>
       </c>
       <c r="M27" s="7">
-        <f>MIN(N27,M26) + M6</f>
+        <f t="shared" si="6"/>
         <v>843</v>
       </c>
       <c r="N27" s="7">
-        <f>MIN(O27,N26) + N6</f>
+        <f t="shared" si="6"/>
         <v>782</v>
       </c>
       <c r="O27" s="7">
-        <f>MIN(P27,O26) + O6</f>
+        <f t="shared" si="6"/>
         <v>691</v>
       </c>
       <c r="P27" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>671</v>
       </c>
       <c r="Q27">
-        <f>MIN(R27,Q26) + Q6</f>
+        <f t="shared" ref="Q27:Q36" si="14">MIN(R27,Q26) + Q6</f>
         <v>620</v>
       </c>
       <c r="R27" s="9">
@@ -2211,37 +2227,37 @@
         <v>521</v>
       </c>
       <c r="S27">
-        <f>MIN(T27,S26) + S6</f>
+        <f t="shared" ref="S27:S41" si="15">MIN(T27,S26) + S6</f>
         <v>465</v>
       </c>
       <c r="T27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>447</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <f>MIN(B28,A27) + A7</f>
+        <f t="shared" si="1"/>
         <v>1585</v>
       </c>
       <c r="B28">
-        <f>MIN(C28,B27) + B7</f>
+        <f t="shared" si="11"/>
         <v>1535</v>
       </c>
       <c r="C28">
-        <f>MIN(D28,C27) + C7</f>
+        <f t="shared" ref="C28:C41" si="16">MIN(D28,C27) + C7</f>
         <v>1436</v>
       </c>
       <c r="D28" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1364</v>
       </c>
       <c r="E28">
-        <f>MIN(F28,E27) + E7</f>
+        <f t="shared" si="13"/>
         <v>1371</v>
       </c>
       <c r="F28" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1328</v>
       </c>
       <c r="G28">
@@ -2253,77 +2269,77 @@
         <v>1236</v>
       </c>
       <c r="I28" s="11">
-        <f t="shared" ref="I28:O28" si="7">J28 + I7</f>
+        <f t="shared" ref="I28:O28" si="17">J28 + I7</f>
         <v>1236</v>
       </c>
       <c r="J28" s="11">
+        <f t="shared" si="17"/>
+        <v>1176</v>
+      </c>
+      <c r="K28" s="11">
+        <f t="shared" si="17"/>
+        <v>1087</v>
+      </c>
+      <c r="L28" s="11">
+        <f t="shared" si="17"/>
+        <v>1007</v>
+      </c>
+      <c r="M28" s="11">
+        <f t="shared" si="17"/>
+        <v>957</v>
+      </c>
+      <c r="N28" s="11">
+        <f t="shared" si="17"/>
+        <v>903</v>
+      </c>
+      <c r="O28" s="11">
+        <f t="shared" si="17"/>
+        <v>842</v>
+      </c>
+      <c r="P28" s="9">
         <f t="shared" si="7"/>
-        <v>1176</v>
-      </c>
-      <c r="K28" s="11">
-        <f t="shared" si="7"/>
-        <v>1087</v>
-      </c>
-      <c r="L28" s="11">
-        <f t="shared" si="7"/>
-        <v>1007</v>
-      </c>
-      <c r="M28" s="11">
-        <f t="shared" si="7"/>
-        <v>957</v>
-      </c>
-      <c r="N28" s="11">
-        <f t="shared" si="7"/>
-        <v>903</v>
-      </c>
-      <c r="O28" s="11">
-        <f t="shared" si="7"/>
-        <v>842</v>
-      </c>
-      <c r="P28" s="9">
-        <f t="shared" si="3"/>
         <v>764</v>
       </c>
       <c r="Q28">
-        <f>MIN(R28,Q27) + Q7</f>
+        <f t="shared" si="14"/>
         <v>640</v>
       </c>
       <c r="R28" s="9">
-        <f t="shared" ref="R28:R36" si="8">R27 + R7</f>
+        <f t="shared" ref="R28:R36" si="18">R27 + R7</f>
         <v>573</v>
       </c>
       <c r="S28">
-        <f>MIN(T28,S27) + S7</f>
+        <f t="shared" si="15"/>
         <v>518</v>
       </c>
       <c r="T28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>521</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <f>MIN(B29,A28) + A8</f>
+        <f t="shared" si="1"/>
         <v>1637</v>
       </c>
       <c r="B29">
-        <f>MIN(C29,B28) + B8</f>
+        <f t="shared" si="11"/>
         <v>1566</v>
       </c>
       <c r="C29">
-        <f>MIN(D29,C28) + C8</f>
+        <f t="shared" si="16"/>
         <v>1484</v>
       </c>
       <c r="D29" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1431</v>
       </c>
       <c r="E29">
-        <f>MIN(F29,E28) + E8</f>
+        <f t="shared" si="13"/>
         <v>1447</v>
       </c>
       <c r="F29" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1417</v>
       </c>
       <c r="G29" s="12">
@@ -2335,698 +2351,695 @@
         <v>1310</v>
       </c>
       <c r="I29">
-        <f>MIN(J29,I28) + I8</f>
+        <f t="shared" ref="I29:P29" si="19">MIN(J29,I28) + I8</f>
         <v>1233</v>
       </c>
       <c r="J29">
-        <f>MIN(K29,J28) + J8</f>
+        <f t="shared" si="19"/>
         <v>1160</v>
       </c>
       <c r="K29">
-        <f>MIN(L29,K28) + K8</f>
+        <f t="shared" si="19"/>
         <v>1076</v>
       </c>
       <c r="L29">
-        <f>MIN(M29,L28) + L8</f>
+        <f t="shared" si="19"/>
         <v>1001</v>
       </c>
       <c r="M29">
-        <f>MIN(N29,M28) + M8</f>
+        <f t="shared" si="19"/>
         <v>961</v>
       </c>
       <c r="N29">
-        <f>MIN(O29,N28) + N8</f>
+        <f t="shared" si="19"/>
         <v>890</v>
       </c>
       <c r="O29">
-        <f>MIN(P29,O28) + O8</f>
+        <f t="shared" si="19"/>
         <v>811</v>
       </c>
       <c r="P29">
-        <f>MIN(Q29,P28) + P8</f>
+        <f t="shared" si="19"/>
         <v>730</v>
       </c>
       <c r="Q29">
-        <f>MIN(R29,Q28) + Q8</f>
+        <f t="shared" si="14"/>
         <v>682</v>
       </c>
       <c r="R29" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>627</v>
       </c>
       <c r="S29">
-        <f>MIN(T29,S28) + S8</f>
+        <f t="shared" si="15"/>
         <v>578</v>
       </c>
       <c r="T29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>601</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <f>MIN(B30,A29) + A9</f>
+        <f t="shared" si="1"/>
         <v>1634</v>
       </c>
       <c r="B30">
-        <f>MIN(C30,B29) + B9</f>
+        <f t="shared" si="11"/>
         <v>1590</v>
       </c>
       <c r="C30">
-        <f>MIN(D30,C29) + C9</f>
+        <f t="shared" si="16"/>
         <v>1540</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1497</v>
       </c>
       <c r="E30">
-        <f>MIN(F30,E29) + E9</f>
+        <f t="shared" si="13"/>
         <v>1521</v>
       </c>
       <c r="F30">
-        <f>MIN(G30,F29) + F9</f>
+        <f t="shared" ref="F30:F35" si="20">MIN(G30,F29) + F9</f>
         <v>1512</v>
       </c>
       <c r="G30" s="11">
-        <f t="shared" ref="G30:H30" si="9">H30 + G9</f>
+        <f t="shared" ref="G30:H30" si="21">H30 + G9</f>
         <v>1467</v>
       </c>
       <c r="H30" s="11">
+        <f t="shared" si="21"/>
+        <v>1380</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ref="I30:L35" si="22">MIN(J30,I29) + I9</f>
+        <v>1311</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="22"/>
+        <v>1220</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="22"/>
+        <v>1135</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="22"/>
+        <v>1080</v>
+      </c>
+      <c r="M30" s="9">
+        <f t="shared" ref="M30:M36" si="23">M29 + M9</f>
+        <v>1015</v>
+      </c>
+      <c r="N30">
+        <f t="shared" ref="N30:P36" si="24">MIN(O30,N29) + N9</f>
+        <v>880</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="24"/>
+        <v>840</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="24"/>
+        <v>798</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="14"/>
+        <v>743</v>
+      </c>
+      <c r="R30" s="9">
+        <f t="shared" si="18"/>
+        <v>704</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="15"/>
+        <v>674</v>
+      </c>
+      <c r="T30" s="2">
         <f t="shared" si="9"/>
-        <v>1380</v>
-      </c>
-      <c r="I30">
-        <f>MIN(J30,I29) + I9</f>
-        <v>1311</v>
-      </c>
-      <c r="J30">
-        <f>MIN(K30,J29) + J9</f>
-        <v>1220</v>
-      </c>
-      <c r="K30">
-        <f>MIN(L30,K29) + K9</f>
-        <v>1135</v>
-      </c>
-      <c r="L30">
-        <f>MIN(M30,L29) + L9</f>
-        <v>1080</v>
-      </c>
-      <c r="M30" s="9">
-        <f t="shared" ref="M30:M36" si="10">M29 + M9</f>
-        <v>1015</v>
-      </c>
-      <c r="N30">
-        <f>MIN(O30,N29) + N9</f>
-        <v>880</v>
-      </c>
-      <c r="O30">
-        <f>MIN(P30,O29) + O9</f>
-        <v>840</v>
-      </c>
-      <c r="P30">
-        <f>MIN(Q30,P29) + P9</f>
-        <v>798</v>
-      </c>
-      <c r="Q30">
-        <f>MIN(R30,Q29) + Q9</f>
-        <v>743</v>
-      </c>
-      <c r="R30" s="9">
-        <f t="shared" si="8"/>
-        <v>704</v>
-      </c>
-      <c r="S30">
-        <f>MIN(T30,S29) + S9</f>
-        <v>674</v>
-      </c>
-      <c r="T30" s="2">
-        <f t="shared" si="4"/>
         <v>653</v>
       </c>
-      <c r="V30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <f>MIN(B31,A30) + A10</f>
+        <f t="shared" si="1"/>
         <v>1707</v>
       </c>
       <c r="B31">
-        <f>MIN(C31,B30) + B10</f>
+        <f t="shared" si="11"/>
         <v>1671</v>
       </c>
       <c r="C31">
-        <f>MIN(D31,C30) + C10</f>
+        <f t="shared" si="16"/>
         <v>1605</v>
       </c>
       <c r="D31" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1551</v>
       </c>
       <c r="E31">
-        <f>MIN(F31,E30) + E10</f>
+        <f t="shared" si="13"/>
         <v>1553</v>
       </c>
       <c r="F31">
-        <f>MIN(G31,F30) + F10</f>
+        <f t="shared" si="20"/>
         <v>1501</v>
       </c>
       <c r="G31">
-        <f>MIN(H31,G30) + G10</f>
+        <f t="shared" ref="G31:G39" si="25">MIN(H31,G30) + G10</f>
         <v>1445</v>
       </c>
       <c r="H31">
-        <f>MIN(I31,H30) + H10</f>
+        <f t="shared" ref="H31:H39" si="26">MIN(I31,H30) + H10</f>
         <v>1374</v>
       </c>
       <c r="I31">
-        <f>MIN(J31,I30) + I10</f>
+        <f t="shared" si="22"/>
         <v>1297</v>
       </c>
       <c r="J31">
-        <f>MIN(K31,J30) + J10</f>
+        <f t="shared" si="22"/>
         <v>1249</v>
       </c>
       <c r="K31">
-        <f>MIN(L31,K30) + K10</f>
+        <f t="shared" si="22"/>
         <v>1196</v>
       </c>
       <c r="L31">
-        <f>MIN(M31,L30) + L10</f>
+        <f t="shared" si="22"/>
         <v>1142</v>
       </c>
       <c r="M31" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>1097</v>
       </c>
       <c r="N31">
-        <f>MIN(O31,N30) + N10</f>
+        <f t="shared" si="24"/>
         <v>925</v>
       </c>
       <c r="O31">
-        <f>MIN(P31,O30) + O10</f>
+        <f t="shared" si="24"/>
         <v>939</v>
       </c>
       <c r="P31">
-        <f>MIN(Q31,P30) + P10</f>
+        <f t="shared" si="24"/>
         <v>877</v>
       </c>
       <c r="Q31">
-        <f>MIN(R31,Q30) + Q10</f>
+        <f t="shared" si="14"/>
         <v>829</v>
       </c>
       <c r="R31" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>755</v>
       </c>
       <c r="S31">
-        <f>MIN(T31,S30) + S10</f>
+        <f t="shared" si="15"/>
         <v>737</v>
       </c>
       <c r="T31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>740</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <f>MIN(B32,A31) + A11</f>
+        <f t="shared" si="1"/>
         <v>1764</v>
       </c>
       <c r="B32">
-        <f>MIN(C32,B31) + B11</f>
+        <f t="shared" si="11"/>
         <v>1736</v>
       </c>
       <c r="C32">
-        <f>MIN(D32,C31) + C11</f>
+        <f t="shared" si="16"/>
         <v>1696</v>
       </c>
       <c r="D32" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1622</v>
       </c>
       <c r="E32">
-        <f>MIN(F32,E31) + E11</f>
+        <f t="shared" si="13"/>
         <v>1609</v>
       </c>
       <c r="F32">
-        <f>MIN(G32,F31) + F11</f>
+        <f t="shared" si="20"/>
         <v>1567</v>
       </c>
       <c r="G32">
-        <f>MIN(H32,G31) + G11</f>
+        <f t="shared" si="25"/>
         <v>1478</v>
       </c>
       <c r="H32">
-        <f>MIN(I32,H31) + H11</f>
+        <f t="shared" si="26"/>
         <v>1434</v>
       </c>
       <c r="I32">
-        <f>MIN(J32,I31) + I11</f>
+        <f t="shared" si="22"/>
         <v>1394</v>
       </c>
       <c r="J32">
-        <f>MIN(K32,J31) + J11</f>
+        <f t="shared" si="22"/>
         <v>1307</v>
       </c>
       <c r="K32">
-        <f>MIN(L32,K31) + K11</f>
+        <f t="shared" si="22"/>
         <v>1236</v>
       </c>
       <c r="L32">
-        <f>MIN(M32,L31) + L11</f>
+        <f t="shared" si="22"/>
         <v>1211</v>
       </c>
       <c r="M32" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>1176</v>
       </c>
       <c r="N32">
-        <f>MIN(O32,N31) + N11</f>
+        <f t="shared" si="24"/>
         <v>1010</v>
       </c>
       <c r="O32">
-        <f>MIN(P32,O31) + O11</f>
+        <f t="shared" si="24"/>
         <v>966</v>
       </c>
       <c r="P32">
-        <f>MIN(Q32,P31) + P11</f>
+        <f t="shared" si="24"/>
         <v>922</v>
       </c>
       <c r="Q32">
-        <f>MIN(R32,Q31) + Q11</f>
+        <f t="shared" si="14"/>
         <v>878</v>
       </c>
       <c r="R32" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>849</v>
       </c>
       <c r="S32">
-        <f>MIN(T32,S31) + S11</f>
+        <f t="shared" si="15"/>
         <v>788</v>
       </c>
       <c r="T32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>818</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <f>MIN(B33,A32) + A12</f>
+        <f t="shared" si="1"/>
         <v>1826</v>
       </c>
       <c r="B33">
-        <f>MIN(C33,B32) + B12</f>
+        <f t="shared" si="11"/>
         <v>1781</v>
       </c>
       <c r="C33">
-        <f>MIN(D33,C32) + C12</f>
+        <f t="shared" si="16"/>
         <v>1759</v>
       </c>
       <c r="D33" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1664</v>
       </c>
       <c r="E33">
-        <f>MIN(F33,E32) + E12</f>
+        <f t="shared" si="13"/>
         <v>1661</v>
       </c>
       <c r="F33">
-        <f>MIN(G33,F32) + F12</f>
+        <f t="shared" si="20"/>
         <v>1648</v>
       </c>
       <c r="G33">
-        <f>MIN(H33,G32) + G12</f>
+        <f t="shared" si="25"/>
         <v>1551</v>
       </c>
       <c r="H33">
-        <f>MIN(I33,H32) + H12</f>
+        <f t="shared" si="26"/>
         <v>1518</v>
       </c>
       <c r="I33">
-        <f>MIN(J33,I32) + I12</f>
+        <f t="shared" si="22"/>
         <v>1476</v>
       </c>
       <c r="J33">
-        <f>MIN(K33,J32) + J12</f>
+        <f t="shared" si="22"/>
         <v>1391</v>
       </c>
       <c r="K33">
-        <f>MIN(L33,K32) + K12</f>
+        <f t="shared" si="22"/>
         <v>1330</v>
       </c>
       <c r="L33">
-        <f>MIN(M33,L32) + L12</f>
+        <f t="shared" si="22"/>
         <v>1270</v>
       </c>
       <c r="M33" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>1256</v>
       </c>
       <c r="N33">
-        <f>MIN(O33,N32) + N12</f>
+        <f t="shared" si="24"/>
         <v>1106</v>
       </c>
       <c r="O33">
-        <f>MIN(P33,O32) + O12</f>
+        <f t="shared" si="24"/>
         <v>1032</v>
       </c>
       <c r="P33">
-        <f>MIN(Q33,P32) + P12</f>
+        <f t="shared" si="24"/>
         <v>985</v>
       </c>
       <c r="Q33">
-        <f>MIN(R33,Q32) + Q12</f>
+        <f t="shared" si="14"/>
         <v>959</v>
       </c>
       <c r="R33" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>903</v>
       </c>
       <c r="S33">
-        <f>MIN(T33,S32) + S12</f>
+        <f t="shared" si="15"/>
         <v>883</v>
       </c>
       <c r="T33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>873</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
-        <f>MIN(B34,A33) + A13</f>
+        <f t="shared" si="1"/>
         <v>1915</v>
       </c>
       <c r="B34">
-        <f>MIN(C34,B33) + B13</f>
+        <f t="shared" si="11"/>
         <v>1824</v>
       </c>
       <c r="C34">
-        <f>MIN(D34,C33) + C13</f>
+        <f t="shared" si="16"/>
         <v>1771</v>
       </c>
       <c r="D34" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1709</v>
       </c>
       <c r="E34">
-        <f>MIN(F34,E33) + E13</f>
+        <f t="shared" si="13"/>
         <v>1722</v>
       </c>
       <c r="F34">
-        <f>MIN(G34,F33) + F13</f>
+        <f t="shared" si="20"/>
         <v>1694</v>
       </c>
       <c r="G34">
-        <f>MIN(H34,G33) + G13</f>
+        <f t="shared" si="25"/>
         <v>1633</v>
       </c>
       <c r="H34">
-        <f>MIN(I34,H33) + H13</f>
+        <f t="shared" si="26"/>
         <v>1591</v>
       </c>
       <c r="I34">
-        <f>MIN(J34,I33) + I13</f>
+        <f t="shared" si="22"/>
         <v>1513</v>
       </c>
       <c r="J34">
-        <f>MIN(K34,J33) + J13</f>
+        <f t="shared" si="22"/>
         <v>1472</v>
       </c>
       <c r="K34">
-        <f>MIN(L34,K33) + K13</f>
+        <f t="shared" si="22"/>
         <v>1385</v>
       </c>
       <c r="L34">
-        <f>MIN(M34,L33) + L13</f>
+        <f t="shared" si="22"/>
         <v>1337</v>
       </c>
       <c r="M34" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>1312</v>
       </c>
       <c r="N34">
-        <f>MIN(O34,N33) + N13</f>
+        <f t="shared" si="24"/>
         <v>1191</v>
       </c>
       <c r="O34">
-        <f>MIN(P34,O33) + O13</f>
+        <f t="shared" si="24"/>
         <v>1107</v>
       </c>
       <c r="P34">
-        <f>MIN(Q34,P33) + P13</f>
+        <f t="shared" si="24"/>
         <v>1029</v>
       </c>
       <c r="Q34">
-        <f>MIN(R34,Q33) + Q13</f>
+        <f t="shared" si="14"/>
         <v>1035</v>
       </c>
       <c r="R34" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>993</v>
       </c>
       <c r="S34">
-        <f>MIN(T34,S33) + S13</f>
+        <f t="shared" si="15"/>
         <v>925</v>
       </c>
       <c r="T34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>942</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <f>MIN(B35,A34) + A14</f>
+        <f t="shared" si="1"/>
         <v>1976</v>
       </c>
       <c r="B35">
-        <f>MIN(C35,B34) + B14</f>
+        <f t="shared" si="11"/>
         <v>1913</v>
       </c>
       <c r="C35">
-        <f>MIN(D35,C34) + C14</f>
+        <f t="shared" si="16"/>
         <v>1836</v>
       </c>
       <c r="D35" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1759</v>
       </c>
       <c r="E35" s="12">
-        <f>MIN(F35,E34) + E14</f>
+        <f t="shared" si="13"/>
         <v>1819</v>
       </c>
       <c r="F35" s="7">
-        <f>MIN(G35,F34) + F14</f>
+        <f t="shared" si="20"/>
         <v>1774</v>
       </c>
       <c r="G35">
-        <f>MIN(H35,G34) + G14</f>
+        <f t="shared" si="25"/>
         <v>1684</v>
       </c>
       <c r="H35">
-        <f>MIN(I35,H34) + H14</f>
+        <f t="shared" si="26"/>
         <v>1631</v>
       </c>
       <c r="I35">
-        <f>MIN(J35,I34) + I14</f>
+        <f t="shared" si="22"/>
         <v>1606</v>
       </c>
       <c r="J35">
-        <f>MIN(K35,J34) + J14</f>
+        <f t="shared" si="22"/>
         <v>1563</v>
       </c>
       <c r="K35">
-        <f>MIN(L35,K34) + K14</f>
+        <f t="shared" si="22"/>
         <v>1471</v>
       </c>
       <c r="L35">
-        <f>MIN(M35,L34) + L14</f>
+        <f t="shared" si="22"/>
         <v>1387</v>
       </c>
       <c r="M35" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>1376</v>
       </c>
       <c r="N35">
-        <f>MIN(O35,N34) + N14</f>
+        <f t="shared" si="24"/>
         <v>1215</v>
       </c>
       <c r="O35">
-        <f>MIN(P35,O34) + O14</f>
+        <f t="shared" si="24"/>
         <v>1132</v>
       </c>
       <c r="P35">
-        <f>MIN(Q35,P34) + P14</f>
+        <f t="shared" si="24"/>
         <v>1084</v>
       </c>
       <c r="Q35">
-        <f>MIN(R35,Q34) + Q14</f>
+        <f t="shared" si="14"/>
         <v>1111</v>
       </c>
       <c r="R35" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1071</v>
       </c>
       <c r="S35">
-        <f>MIN(T35,S34) + S14</f>
+        <f t="shared" si="15"/>
         <v>1007</v>
       </c>
       <c r="T35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>982</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <f>MIN(B36,A35) + A15</f>
+        <f t="shared" si="1"/>
         <v>1975</v>
       </c>
       <c r="B36">
-        <f>MIN(C36,B35) + B15</f>
+        <f t="shared" si="11"/>
         <v>1917</v>
       </c>
       <c r="C36">
-        <f>MIN(D36,C35) + C15</f>
+        <f t="shared" si="16"/>
         <v>1872</v>
       </c>
       <c r="D36">
-        <f>MIN(E36,D35) + D15</f>
+        <f t="shared" ref="D36:D41" si="27">MIN(E36,D35) + D15</f>
         <v>1811</v>
       </c>
       <c r="E36" s="11">
-        <f t="shared" ref="E36:F36" si="11">F36 + E15</f>
+        <f t="shared" ref="E36:F36" si="28">F36 + E15</f>
         <v>1868</v>
       </c>
       <c r="F36" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>1823</v>
       </c>
       <c r="G36">
-        <f>MIN(H36,G35) + G15</f>
+        <f t="shared" si="25"/>
         <v>1758</v>
       </c>
       <c r="H36">
-        <f>MIN(I36,H35) + H15</f>
+        <f t="shared" si="26"/>
         <v>1717</v>
       </c>
       <c r="I36">
-        <f>MIN(J36,I35) + I15</f>
+        <f t="shared" ref="I36:K39" si="29">MIN(J36,I35) + I15</f>
         <v>1671</v>
       </c>
       <c r="J36">
-        <f>MIN(K36,J35) + J15</f>
+        <f t="shared" si="29"/>
         <v>1625</v>
       </c>
       <c r="K36">
-        <f>MIN(L36,K35) + K15</f>
+        <f t="shared" si="29"/>
         <v>1536</v>
       </c>
       <c r="L36" s="9">
-        <f t="shared" ref="L36:L41" si="12">L35 + L15</f>
+        <f t="shared" ref="L36:L41" si="30">L35 + L15</f>
         <v>1443</v>
       </c>
       <c r="M36" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>1434</v>
       </c>
       <c r="N36">
-        <f>MIN(O36,N35) + N15</f>
+        <f t="shared" si="24"/>
         <v>1290</v>
       </c>
       <c r="O36">
-        <f>MIN(P36,O35) + O15</f>
+        <f t="shared" si="24"/>
         <v>1192</v>
       </c>
       <c r="P36" s="7">
-        <f>MIN(Q36,P35) + P15</f>
+        <f t="shared" si="24"/>
         <v>1129</v>
       </c>
       <c r="Q36" s="7">
-        <f>MIN(R36,Q35) + Q15</f>
+        <f t="shared" si="14"/>
         <v>1153</v>
       </c>
       <c r="R36" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1159</v>
       </c>
       <c r="S36">
-        <f>MIN(T36,S35) + S15</f>
+        <f t="shared" si="15"/>
         <v>1081</v>
       </c>
       <c r="T36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1075</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
-        <f>MIN(B37,A36) + A16</f>
+        <f t="shared" si="1"/>
         <v>2049</v>
       </c>
       <c r="B37" s="9">
-        <f t="shared" ref="B37:B41" si="13">B36 + B16</f>
+        <f t="shared" ref="B37:B41" si="31">B36 + B16</f>
         <v>1993</v>
       </c>
       <c r="C37">
-        <f>MIN(D37,C36) + C16</f>
+        <f t="shared" si="16"/>
         <v>1967</v>
       </c>
       <c r="D37">
-        <f>MIN(E37,D36) + D16</f>
+        <f t="shared" si="27"/>
         <v>1870</v>
       </c>
       <c r="E37">
-        <f>MIN(F37,E36) + E16</f>
+        <f t="shared" ref="E37:F41" si="32">MIN(F37,E36) + E16</f>
         <v>1891</v>
       </c>
       <c r="F37">
-        <f>MIN(G37,F36) + F16</f>
+        <f t="shared" si="32"/>
         <v>1828</v>
       </c>
       <c r="G37">
-        <f>MIN(H37,G36) + G16</f>
+        <f t="shared" si="25"/>
         <v>1753</v>
       </c>
       <c r="H37">
-        <f>MIN(I37,H36) + H16</f>
+        <f t="shared" si="26"/>
         <v>1692</v>
       </c>
       <c r="I37">
-        <f>MIN(J37,I36) + I16</f>
+        <f t="shared" si="29"/>
         <v>1644</v>
       </c>
       <c r="J37">
-        <f>MIN(K37,J36) + J16</f>
+        <f t="shared" si="29"/>
         <v>1596</v>
       </c>
       <c r="K37">
-        <f>MIN(L37,K36) + K16</f>
+        <f t="shared" si="29"/>
         <v>1553</v>
       </c>
       <c r="L37" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>1510</v>
       </c>
       <c r="M37">
-        <f>MIN(N37,M36) + M16</f>
+        <f t="shared" ref="M37:O39" si="33">MIN(N37,M36) + M16</f>
         <v>1436</v>
       </c>
       <c r="N37">
-        <f>MIN(O37,N36) + N16</f>
+        <f t="shared" si="33"/>
         <v>1360</v>
       </c>
       <c r="O37">
-        <f>MIN(P37,O36) + O16</f>
+        <f t="shared" si="33"/>
         <v>1282</v>
       </c>
       <c r="P37" s="11">
-        <f t="shared" ref="P37:Q37" si="14">Q37 + P16</f>
+        <f t="shared" ref="P37:Q37" si="34">Q37 + P16</f>
         <v>1416</v>
       </c>
       <c r="Q37" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>1320</v>
       </c>
       <c r="R37" s="11">
@@ -3034,213 +3047,213 @@
         <v>1242</v>
       </c>
       <c r="S37">
-        <f>MIN(T37,S36) + S16</f>
+        <f t="shared" si="15"/>
         <v>1151</v>
       </c>
       <c r="T37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1166</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
-        <f>MIN(B38,A37) + A17</f>
+        <f t="shared" si="1"/>
         <v>2121</v>
       </c>
       <c r="B38" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>2076</v>
       </c>
       <c r="C38">
-        <f>MIN(D38,C37) + C17</f>
+        <f t="shared" si="16"/>
         <v>1992</v>
       </c>
       <c r="D38">
-        <f>MIN(E38,D37) + D17</f>
+        <f t="shared" si="27"/>
         <v>1952</v>
       </c>
       <c r="E38">
-        <f>MIN(F38,E37) + E17</f>
+        <f t="shared" si="32"/>
         <v>1931</v>
       </c>
       <c r="F38">
-        <f>MIN(G38,F37) + F17</f>
+        <f t="shared" si="32"/>
         <v>1863</v>
       </c>
       <c r="G38">
-        <f>MIN(H38,G37) + G17</f>
+        <f t="shared" si="25"/>
         <v>1797</v>
       </c>
       <c r="H38">
-        <f>MIN(I38,H37) + H17</f>
+        <f t="shared" si="26"/>
         <v>1745</v>
       </c>
       <c r="I38">
-        <f>MIN(J38,I37) + I17</f>
+        <f t="shared" si="29"/>
         <v>1717</v>
       </c>
       <c r="J38">
-        <f>MIN(K38,J37) + J17</f>
+        <f t="shared" si="29"/>
         <v>1653</v>
       </c>
       <c r="K38">
-        <f>MIN(L38,K37) + K17</f>
+        <f t="shared" si="29"/>
         <v>1629</v>
       </c>
       <c r="L38" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>1551</v>
       </c>
       <c r="M38">
-        <f>MIN(N38,M37) + M17</f>
+        <f t="shared" si="33"/>
         <v>1494</v>
       </c>
       <c r="N38">
-        <f>MIN(O38,N37) + N17</f>
+        <f t="shared" si="33"/>
         <v>1412</v>
       </c>
       <c r="O38">
-        <f>MIN(P38,O37) + O17</f>
+        <f t="shared" si="33"/>
         <v>1361</v>
       </c>
       <c r="P38">
-        <f>MIN(Q38,P37) + P17</f>
+        <f t="shared" ref="P38:R39" si="35">MIN(Q38,P37) + P17</f>
         <v>1482</v>
       </c>
       <c r="Q38">
-        <f>MIN(R38,Q37) + Q17</f>
+        <f t="shared" si="35"/>
         <v>1390</v>
       </c>
       <c r="R38">
-        <f>MIN(S38,R37) + R17</f>
+        <f t="shared" si="35"/>
         <v>1305</v>
       </c>
       <c r="S38">
-        <f>MIN(T38,S37) + S17</f>
+        <f t="shared" si="15"/>
         <v>1207</v>
       </c>
       <c r="T38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1229</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <f>MIN(B39,A38) + A18</f>
+        <f t="shared" si="1"/>
         <v>2191</v>
       </c>
       <c r="B39" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>2157</v>
       </c>
       <c r="C39">
-        <f>MIN(D39,C38) + C18</f>
+        <f t="shared" si="16"/>
         <v>2051</v>
       </c>
       <c r="D39">
-        <f>MIN(E39,D38) + D18</f>
+        <f t="shared" si="27"/>
         <v>2034</v>
       </c>
       <c r="E39">
-        <f>MIN(F39,E38) + E18</f>
+        <f t="shared" si="32"/>
         <v>2013</v>
       </c>
       <c r="F39">
-        <f>MIN(G39,F38) + F18</f>
+        <f t="shared" si="32"/>
         <v>1922</v>
       </c>
       <c r="G39" s="7">
-        <f>MIN(H39,G38) + G18</f>
+        <f t="shared" si="25"/>
         <v>1852</v>
       </c>
       <c r="H39" s="7">
-        <f>MIN(I39,H38) + H18</f>
+        <f t="shared" si="26"/>
         <v>1829</v>
       </c>
       <c r="I39" s="7">
-        <f>MIN(J39,I38) + I18</f>
+        <f t="shared" si="29"/>
         <v>1760</v>
       </c>
       <c r="J39">
-        <f>MIN(K39,J38) + J18</f>
+        <f t="shared" si="29"/>
         <v>1751</v>
       </c>
       <c r="K39">
-        <f>MIN(L39,K38) + K18</f>
+        <f t="shared" si="29"/>
         <v>1681</v>
       </c>
       <c r="L39" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>1601</v>
       </c>
       <c r="M39">
-        <f>MIN(N39,M38) + M18</f>
+        <f t="shared" si="33"/>
         <v>1546</v>
       </c>
       <c r="N39">
-        <f>MIN(O39,N38) + N18</f>
+        <f t="shared" si="33"/>
         <v>1481</v>
       </c>
       <c r="O39" s="7">
-        <f>MIN(P39,O38) + O18</f>
+        <f t="shared" si="33"/>
         <v>1422</v>
       </c>
       <c r="P39" s="7">
-        <f>MIN(Q39,P38) + P18</f>
+        <f t="shared" si="35"/>
         <v>1460</v>
       </c>
       <c r="Q39" s="7">
-        <f>MIN(R39,Q38) + Q18</f>
+        <f t="shared" si="35"/>
         <v>1370</v>
       </c>
       <c r="R39">
-        <f>MIN(S39,R38) + R18</f>
+        <f t="shared" si="35"/>
         <v>1327</v>
       </c>
       <c r="S39">
-        <f>MIN(T39,S38) + S18</f>
+        <f t="shared" si="15"/>
         <v>1286</v>
       </c>
       <c r="T39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1315</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
-        <f>MIN(B40,A39) + A19</f>
+        <f t="shared" si="1"/>
         <v>2247</v>
       </c>
       <c r="B40" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>2231</v>
       </c>
       <c r="C40">
-        <f>MIN(D40,C39) + C19</f>
+        <f t="shared" si="16"/>
         <v>2146</v>
       </c>
       <c r="D40">
-        <f>MIN(E40,D39) + D19</f>
+        <f t="shared" si="27"/>
         <v>2117</v>
       </c>
       <c r="E40">
-        <f>MIN(F40,E39) + E19</f>
+        <f t="shared" si="32"/>
         <v>2040</v>
       </c>
       <c r="F40">
-        <f>MIN(G40,F39) + F19</f>
+        <f t="shared" si="32"/>
         <v>1962</v>
       </c>
       <c r="G40" s="11">
-        <f t="shared" ref="G40:I40" si="15">H40 + G19</f>
+        <f t="shared" ref="G40:I40" si="36">H40 + G19</f>
         <v>2002</v>
       </c>
       <c r="H40" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="36"/>
         <v>1917</v>
       </c>
       <c r="I40" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="36"/>
         <v>1839</v>
       </c>
       <c r="J40">
@@ -3252,7 +3265,7 @@
         <v>1738</v>
       </c>
       <c r="L40" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>1660</v>
       </c>
       <c r="M40">
@@ -3264,15 +3277,15 @@
         <v>1529</v>
       </c>
       <c r="O40" s="11">
-        <f t="shared" ref="O40:Q40" si="16">P40 + O19</f>
+        <f t="shared" ref="O40:Q40" si="37">P40 + O19</f>
         <v>1562</v>
       </c>
       <c r="P40" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="37"/>
         <v>1501</v>
       </c>
       <c r="Q40" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="37"/>
         <v>1435</v>
       </c>
       <c r="R40">
@@ -3280,37 +3293,37 @@
         <v>1393</v>
       </c>
       <c r="S40">
-        <f>MIN(T40,S39) + S19</f>
+        <f t="shared" si="15"/>
         <v>1371</v>
       </c>
       <c r="T40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1393</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
-        <f>MIN(B41,A40) + A20</f>
+        <f t="shared" si="1"/>
         <v>2316</v>
       </c>
       <c r="B41" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>2327</v>
       </c>
       <c r="C41" s="13">
-        <f>MIN(D41,C40) + C20</f>
+        <f t="shared" si="16"/>
         <v>2188</v>
       </c>
       <c r="D41" s="7">
-        <f>MIN(E41,D40) + D20</f>
+        <f t="shared" si="27"/>
         <v>2177</v>
       </c>
       <c r="E41" s="7">
-        <f>MIN(F41,E40) + E20</f>
+        <f t="shared" si="32"/>
         <v>2098</v>
       </c>
       <c r="F41" s="7">
-        <f>MIN(G41,F40) + F20</f>
+        <f t="shared" si="32"/>
         <v>2052</v>
       </c>
       <c r="G41" s="7">
@@ -3334,7 +3347,7 @@
         <v>1811</v>
       </c>
       <c r="L41" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>1756</v>
       </c>
       <c r="M41" s="13">
@@ -3362,23 +3375,21 @@
         <v>1472</v>
       </c>
       <c r="S41" s="7">
-        <f>MIN(T41,S40) + S20</f>
+        <f t="shared" si="15"/>
         <v>1465</v>
       </c>
       <c r="T41" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1436</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="F44">
+    <row r="42" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F44" s="14">
+        <v>1093</v>
+      </c>
+      <c r="G44" s="14">
         <v>2921</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="G45">
-        <v>1093</v>
       </c>
     </row>
   </sheetData>
@@ -3393,7 +3404,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3405,7 +3416,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
